--- a/similarities/split_global/harmonic_similarity_timestamps_5.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,726 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_259</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Db', 'Gb', 'Ab']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F']]</t>
+          <t>['A', 'D', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:09.162102', '0:00:14.073123')]</t>
+          <t>('0:00:00.344657', '0:00:05.571955')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:02.530000', '0:01:09.910000')]</t>
+          <t>('0:00:47.187000', '0:00:57.707000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=0.344657</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=62.53']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>schubert-winterreise_122</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>schubert-winterreise_5</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:31.740000', '0:00:33.880000')]</t>
+          <t>('0:00:36.400000', '0:00:41.700000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:02.860000', '0:01:08.740000')]</t>
+          <t>('0:00:31.340000', '0:00:33.520000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=36.4</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=62.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-5#t=31.34</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>isophonics_234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Eb:7/#5', 'Ab', 'F:min7']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['F:7', 'Bb', 'G:min7']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:15.027029', '0:00:22.457415')]</t>
+          <t>('0:00:02.624000', '0:00:06.624000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
+          <t>('0:00:15.539000', '0:00:22.860000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=15.027029']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-234#t=2.624</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=15.539</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+          <t>('0:01:09.360000', '0:01:13.200000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:02.100000', '0:01:11.780000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=69.36</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=62.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:31.910000', '0:00:40.720000')]</t>
+          <t>('0:00:13.080000', '0:00:19.340000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:00.480000', '0:00:09.640000')]</t>
+          <t>('0:00:13.720000', '0:00:20.760000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=31.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_198</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_146</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A', 'D:min']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['A', 'D', 'A', 'D']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:18.965464', '0:00:23.342426')]</t>
+          <t>('0:02:03.030000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000')]</t>
+          <t>('0:00:05.915850', '0:00:17.734807')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-198#t=18.965464']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-146#t=5.91585</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D/3']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['A#:min', 'F:7/C', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:08.669000', '0:01:14.662000')]</t>
+          <t>('0:00:03.820000', '0:00:08.620000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:10.180000', '0:00:12.040000')]</t>
+          <t>('0:00:02.600000', '0:00:04.500000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=3.82</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=10.18']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=2.6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_181</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
+          <t>['F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+          <t>('0:00:07.960000', '0:00:21.560000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+          <t>('0:00:42.520000', '0:00:50.160000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=7.96</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-181#t=60.761383']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=42.52</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:20.200000', '0:01:26.860000'), ('0:00:26.200000', '0:00:33.960000')]</t>
+          <t>('0:00:21.170000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:04.860000', '0:00:09.640000'), ('0:00:02.360000', '0:00:05.680000')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=26.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=21.17</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=4.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=2.36']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>isophonics_296</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_168</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'G:maj', 'D/3']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:06.920000', '0:00:13.460000')]</t>
+          <t>('0:01:08.669000', '0:01:14.662000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:02.680000', '0:00:08.620000')]</t>
+          <t>('0:00:10.779093', '0:00:14.076327')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=6.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=68.669</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=2.68']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=10.779093</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'A']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:15.058526', '0:01:45.418616')]</t>
+          <t>('0:02:12.300000', '0:02:17.480000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:06.900000', '0:00:10.820000')]</t>
+          <t>('0:01:36.749660', '0:01:48.092607')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-219#t=75.058526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=6.9']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=96.74966</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+          <t>('0:00:19.480000', '0:00:25.860000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:16.580000', '0:00:22.660000')]</t>
+          <t>('0:00:00.300000', '0:00:02.820000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=19.48</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=16.58']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=0.3</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Ab']]</t>
+          <t>['C#:maj/F', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:06.427052', '0:01:11.593492')]</t>
+          <t>('0:00:37.940000', '0:00:42.840000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:02:14.260000', '0:02:19.700000')]</t>
+          <t>('0:00:41.320000', '0:00:46.640000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=37.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=134.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:7', 'C:min', 'B:dim7/C', 'C:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D:7', 'G:min', 'F#:dim7', 'G:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:43.610000', '0:00:49.020000')]</t>
+          <t>('0:01:12.840000', '0:01:22.480000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:39.460000', '0:01:49.220000')]</t>
+          <t>('0:00:16.920000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=43.61']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=72.84</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=99.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=16.92</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>isophonics_196</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min']]</t>
+          <t>['A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:10.540000', '0:00:15.940000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:15.600000', '0:00:24.080000'), ('0:01:24.620000', '0:01:31.740000')]</t>
+          <t>('0:00:31.237210', '0:00:36.914489')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=10.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=31.23721</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
